--- a/front-end/public/sample_call_list.xlsx
+++ b/front-end/public/sample_call_list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>First Name</t>
   </si>
@@ -28,14 +28,55 @@
   </si>
   <si>
     <t>Title</t>
+  </si>
+  <si>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>Sharma</t>
+  </si>
+  <si>
+    <t>Ms.</t>
+  </si>
+  <si>
+    <t>Priya</t>
+  </si>
+  <si>
+    <t>Verma</t>
+  </si>
+  <si>
+    <t>Mrs.</t>
+  </si>
+  <si>
+    <t>Anjali</t>
+  </si>
+  <si>
+    <t>Mehta</t>
+  </si>
+  <si>
+    <t>Arjun</t>
+  </si>
+  <si>
+    <t>Singh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -63,8 +104,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,24 +409,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2">
+        <v>9876543210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2">
+        <v>9123456789</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2">
+        <v>9988776655</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2">
+        <v>9090909090</v>
       </c>
     </row>
   </sheetData>
